--- a/multifactorial_analysis/DAG2.xlsx
+++ b/multifactorial_analysis/DAG2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t>Переменная</t>
   </si>
@@ -72,15 +72,9 @@
     <t>Complication of labor/delivery</t>
   </si>
   <si>
-    <t>Конфаундер</t>
-  </si>
-  <si>
     <t>ещё опосредует влияние Mother's age Mother's race Mother's education</t>
   </si>
   <si>
-    <t>Competing Exposures</t>
-  </si>
-  <si>
     <t>Нейтральная</t>
   </si>
   <si>
@@ -112,6 +106,90 @@
   </si>
   <si>
     <t>Влияет на исход. Опосредует влияние Number of previous deliveries Medical risks</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Курение матери</t>
+  </si>
+  <si>
+    <t>Возраст матери</t>
+  </si>
+  <si>
+    <t>Раса матери</t>
+  </si>
+  <si>
+    <t>Употребление матерью алкоголя</t>
+  </si>
+  <si>
+    <t>Образование матери</t>
+  </si>
+  <si>
+    <t>Медицинские риски</t>
+  </si>
+  <si>
+    <t>Пренатальный уход</t>
+  </si>
+  <si>
+    <t>Вес ребенка при рождении</t>
+  </si>
+  <si>
+    <t>Пол ребенка</t>
+  </si>
+  <si>
+    <t>Метод родоразрешения</t>
+  </si>
+  <si>
+    <t>Количество предыдущих родов</t>
+  </si>
+  <si>
+    <t>Смерть ребенка</t>
+  </si>
+  <si>
+    <t>Communication characteristics</t>
+  </si>
+  <si>
+    <t>Характеристика связи</t>
+  </si>
+  <si>
+    <t>Напрямую влияет на воздействие и опосредованно на исход через количество предыдущих родов и метод родоразрешения</t>
+  </si>
+  <si>
+    <t>Также опосредует влияние на исход возраста матери, её расы и образования</t>
+  </si>
+  <si>
+    <t>Напрямую на воздействие и опосредованно на исход через количество предыдущих родов и метода родоразрешения. Также опосредует влияние на исход возраста матери и её расы</t>
+  </si>
+  <si>
+    <t>Напряму на исход и опосредованно на воздействие через Пренатальный уход</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Также опосредует влияние пола ребенка, медицинских рисков, пренатального ухода, количества предыдущих родов, возраста матери, её расы, образования и употреблению ею алкогольных напитков </t>
+  </si>
+  <si>
+    <t>Влияет на исход, также опосредует влияние на него количества предыдущих родов и медицинских рисков</t>
+  </si>
+  <si>
+    <t>Влияет на исход через вес ребенка и метод родоразрешения. Также опосредует влияние на исход пренатального ухода, образования матери, её расы и возраста</t>
+  </si>
+  <si>
+    <t>Осложнения при родах</t>
+  </si>
+  <si>
+    <t>Конфаундер, влияющий напрямую</t>
+  </si>
+  <si>
+    <t>Напряму на воздейтвие и на иход через вес ребенка. Также опосредует влияние на исход медицинских рисков</t>
+  </si>
+  <si>
+    <t>Конфаундер, влияющий через другие переменные</t>
+  </si>
+  <si>
+    <t>Влияет на исход через вес ребенка</t>
+  </si>
+  <si>
+    <t>Медиатор конфаундера</t>
   </si>
 </sst>
 </file>
@@ -441,168 +519,252 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="48.88671875" customWidth="1"/>
+    <col min="1" max="2" width="26.109375" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" customWidth="1"/>
+    <col min="4" max="4" width="48.88671875" customWidth="1"/>
+    <col min="5" max="5" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" ht="29.05" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="43.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="29.05" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="43.6" x14ac:dyDescent="0.3">
+      <c r="E6" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="58.1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="29.05" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="29.05" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="43.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="58.1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="72.599999999999994" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="29.05" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="29.05" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="43.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="43.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="58.1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G18" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>